--- a/unir/Corporación de Fomento de Desarrollo comunal y Productivo de la Granja.xlsx
+++ b/unir/Corporación de Fomento de Desarrollo comunal y Productivo de la Granja.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,14 +358,753 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>organismo_nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>anyo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Paterno</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Materno</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo cargo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_calificacionp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>remuneracionbruta_mensual</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>remuliquida_mensual</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRECOMPLETO</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRECOMPLETO2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>María Teresa</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Licanqueo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Droguett</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>COORDINADORA EJECUTIVA DEL PROGRAMA DE MICROCRÉDITO Y ASISTENTE ADMINISTRATIVA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Enseñanza media</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1367987</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MARIA TERESA</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>María Teresa Licanqueo Droguett</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MARIA TERESA LICANQUEO DROGUETT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pablo Antonio</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Faúndez</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cofré</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CONTADOR</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Contador auditor</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1175889</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PABLO ANTONIO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Pablo Antonio Faúndez Cofré</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PABLO ANTONIO FAUNDEZ COFRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ana María</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Correa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>López</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>DIRECTORA EJECUTIVA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Economista</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>3449637</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ANA MARIA</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Ana María Correa López</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>ANA MARIA CORREA LOPEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>María Rosa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cerda</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illanes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>EJECUTIVA DE FOMENTO</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Enseñanza media</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1022334</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>MARIA ROSA</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>María Rosa Cerda Illanes</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MARIA ROSA CERDA ILLANES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Míriam Rebeca</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Carrasco</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Silva</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>EJECUTIVA DE FOMENTO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Enseñanza media</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1022334</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MIRIAM REBECA</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Míriam Rebeca Carrasco Silva</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>MIRIAM REBECA CARRASCO SILVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rosa Isabel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Barra</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fuenzalida</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CAJERA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Enseñanza media</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>727026</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ROSA ISABEL</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Rosa Isabel Barra Fuenzalida</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>ROSA ISABEL BARRA FUENZALIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Yamilet Alexandra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Díaz</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>EJECUTIVA DE FOMENTO</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Técnico de Nivel Superior en Administración de Empresas Financieras</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>771548</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>YAMILET ALEXANDRA</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Yamilet Alexandra Pereira Díaz</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>YAMILET ALEXANDRA PEREIRA DIAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Francisca Alejandra</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Muñóz</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Viedma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>AUXILIAR</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Enseñanza media</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>460000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>FRANCISCA ALEJANDRA</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Francisca Alejandra Muñóz Viedma</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>FRANCISCA ALEJANDRA MUNOZ VIEDMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Jaime</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Maturana</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vásquez</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>EJECUTIVO DE FOMENTO</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Técnico en comercio exterior</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1022334</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Jaime Maturana Vásquez</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>JAIME MATURANA VASQUEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Juan Claudio</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Reyes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Saldías</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>COORDINADOR DE ESTUDIOS Y CONVENIOS</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sociólogo</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2606850</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>JUAN CLAUDIO</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Juan Claudio Reyes Saldías</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>JUAN CLAUDIO REYES SALDIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Corporación de Fomento de Desarrollo comunal y Productivo de la Granja</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sebastían</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LLantén</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Morales</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ASESOR JURÍDICO</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1158752</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Sebastían LLantén Morales</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>SEBASTIAN LLANTEN MORALES</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>